--- a/Data/Input/Sample.xlsx
+++ b/Data/Input/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8dbe943334caa90/Documents/UiPath/MyCustomREF/ProjectName_QueueManager/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104845599F44905ADE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7AD2651E-6684-4D8A-9A30-E9F4FD03F422}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC104845599F44905ADE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2930D57F-692D-49EE-A766-A142BE32ACB9}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="2618" windowWidth="15518" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>This is some random description for account 100003</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -75,8 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,45 +363,45 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
     <col min="2" max="2" width="42.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>100001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>100002</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>100003</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
